--- a/biology/Médecine/Pancytopénie/Pancytopénie.xlsx
+++ b/biology/Médecine/Pancytopénie/Pancytopénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pancytop%C3%A9nie</t>
+          <t>Pancytopénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pancytopénie est un état morbide dans lequel il y a réduction des trois paramètres de l'hémogramme : l'anémie (globules rouges), la thrombopénie (plaquettes) et la leucopénie (globules blancs).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pancytop%C3%A9nie</t>
+          <t>Pancytopénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Circonstances d'apparition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pancytopénie apparaît en général dans le cas de maladies affectant la moelle osseuse, bien que la destruction périphérique de toutes les lignes de cellules sanguines, dans le cas d'hypersplénisme, soit une autre cause connue. Elle peut également être causée par un déficit en vitamine B12 (anémie pernicieuse par exemple), affectant la synthèse d'ADN de toutes les lignées hématologiques. Les problèmes de moelle osseuse qui provoquent la pancytopénie comprennent la myélofibrose, la leucémie et l'anémie aplasique.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pancytop%C3%A9nie</t>
+          <t>Pancytopénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le VIH (Virus d'Immunodéficience Humaine) est une cause de plus en plus fréquente de pancytopénie. Exceptionnellement certains médicaments (antibiotiques, colchicine, médicaments pour la tension ou pour le cœur) peuvent la provoquer.
 La pancytopénie peut aussi provoquer :
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pancytop%C3%A9nie</t>
+          <t>Pancytopénie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Détection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pancytopénies ont une origine soit centrale soit périphérique.
 Quelques examens biologiques sont très importantes pour l’orientation initiale :
